--- a/CsvToolTests/Files/Excel/simpleExportAsTable.xlsx
+++ b/CsvToolTests/Files/Excel/simpleExportAsTable.xlsx
@@ -1,96 +1,131 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:workbookPr codeName="ThisWorkbook"/>
-  <x:bookViews>
-    <x:workbookView firstSheet="0" activeTab="0"/>
-  </x:bookViews>
-  <x:sheets>
-    <x:sheet name="Data" sheetId="2" r:id="rId2"/>
-  </x:sheets>
-  <x:definedNames/>
-  <x:calcPr calcId="125725"/>
-</x:workbook>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6c79cbd02c8d62a0/Udvikling/Bygdrift/Tools/CsvTool/CsvToolTests/Files/Excel/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="14" documentId="11_89EE873B61C0A5B1284A63253253C4871D13F45E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9D4B1368-7372-4500-831C-1ECEBC06083F}"/>
+  <bookViews>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
+  <sheets>
+    <sheet name="Data" sheetId="2" r:id="rId1"/>
+    <sheet name="RefTable" sheetId="3" r:id="rId2"/>
+  </sheets>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
+</workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <x:si>
-    <x:t>Id</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Age</x:t>
-  </x:si>
-</x:sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Return</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<x:styleSheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:numFmts count="1">
-    <x:numFmt numFmtId="0" formatCode=""/>
-  </x:numFmts>
-  <x:fonts count="1">
-    <x:font>
-      <x:vertAlign val="baseline"/>
-      <x:sz val="11"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Calibri"/>
-      <x:family val="2"/>
-    </x:font>
-  </x:fonts>
-  <x:fills count="2">
-    <x:fill>
-      <x:patternFill patternType="none"/>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="gray125"/>
-    </x:fill>
-  </x:fills>
-  <x:borders count="1">
-    <x:border diagonalUp="0" diagonalDown="0">
-      <x:left style="none">
-        <x:color rgb="FF000000"/>
-      </x:left>
-      <x:right style="none">
-        <x:color rgb="FF000000"/>
-      </x:right>
-      <x:top style="none">
-        <x:color rgb="FF000000"/>
-      </x:top>
-      <x:bottom style="none">
-        <x:color rgb="FF000000"/>
-      </x:bottom>
-      <x:diagonal style="none">
-        <x:color rgb="FF000000"/>
-      </x:diagonal>
-    </x:border>
-  </x:borders>
-  <x:cellStyleXfs count="1">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-  </x:cellStyleXfs>
-  <x:cellXfs count="1">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-  </x:cellXfs>
-  <x:cellStyles count="1">
-    <x:cellStyle name="Normal" xfId="0" builtinId="0"/>
-  </x:cellStyles>
-</x:styleSheet>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+  </fonts>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
+  </fills>
+  <borders count="1">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+  </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
+  </cellStyleXfs>
+  <cellXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
+</styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:B3" totalsRowShown="0">
-  <x:autoFilter ref="A1:B3"/>
-  <x:tableColumns count="2">
-    <x:tableColumn id="1" name="Id"/>
-    <x:tableColumn id="2" name="Age"/>
-  </x:tableColumns>
-  <x:tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</x:table>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="TabelNr1" displayName="TabelNr1" ref="A1:B3" totalsRowShown="0">
+  <autoFilter ref="A1:B3" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Id"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Age"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8CA455DB-C105-4E16-B3D2-45C87975EB74}" name="RefTable" displayName="RefTable" ref="A1:B3" totalsRowShown="0">
+  <autoFilter ref="A1:B3" xr:uid="{8CA455DB-C105-4E16-B3D2-45C87975EB74}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{66D47F52-37E9-46C4-BD2B-B8962F099D52}" name="Id"/>
+    <tableColumn id="2" xr3:uid="{BED13DE8-D9F0-4EB5-98E4-5C36ACB9ADC9}" name="Return"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -377,47 +412,86 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:sheetPr>
-    <x:outlinePr summaryBelow="1" summaryRight="1"/>
-  </x:sheetPr>
-  <x:dimension ref="A1:B3"/>
-  <x:sheetViews>
-    <x:sheetView workbookViewId="0"/>
-  </x:sheetViews>
-  <x:sheetFormatPr defaultRowHeight="15"/>
-  <x:sheetData>
-    <x:row r="1" spans="1:2">
-      <x:c r="A1" s="0" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B1" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="2" spans="1:2">
-      <x:c r="A2" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="B2" s="0" t="n">
-        <x:v>5</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="1:2">
-      <x:c r="A3" s="0" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="B3" s="0" t="n">
-        <x:v>8</x:v>
-      </x:c>
-    </x:row>
-  </x:sheetData>
-  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
-  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
-  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
-  <x:headerFooter/>
-  <x:tableParts count="1">
-    <x:tablePart r:id="rId5"/>
-  </x:tableParts>
-</x:worksheet>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="str">
+        <f>VLOOKUP(TabelNr1[[#This Row],[Id]],RefTable[#All],2,FALSE)</f>
+        <v>A</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8CAB631-C706-44D4-BB82-CB77FE3E98D5}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/CsvToolTests/Files/Excel/simpleExportAsTable.xlsx
+++ b/CsvToolTests/Files/Excel/simpleExportAsTable.xlsx
@@ -1,131 +1,96 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
-  <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6c79cbd02c8d62a0/Udvikling/Bygdrift/Tools/CsvTool/CsvToolTests/Files/Excel/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="11_89EE873B61C0A5B1284A63253253C4871D13F45E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9D4B1368-7372-4500-831C-1ECEBC06083F}"/>
-  <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
-  <sheets>
-    <sheet name="Data" sheetId="2" r:id="rId1"/>
-    <sheet name="RefTable" sheetId="3" r:id="rId2"/>
-  </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
-</workbook>
+<x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:workbookPr codeName="ThisWorkbook"/>
+  <x:bookViews>
+    <x:workbookView firstSheet="0" activeTab="0"/>
+  </x:bookViews>
+  <x:sheets>
+    <x:sheet name="Data" sheetId="2" r:id="rId2"/>
+  </x:sheets>
+  <x:definedNames/>
+  <x:calcPr calcId="125725"/>
+</x:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
-  <si>
-    <t>Id</t>
-  </si>
-  <si>
-    <t>Age</t>
-  </si>
-  <si>
-    <t>Return</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-</sst>
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:si>
+    <x:t>Id</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Age</x:t>
+  </x:si>
+</x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-  </fonts>
-  <fills count="2">
-    <fill>
-      <patternFill patternType="none"/>
-    </fill>
-    <fill>
-      <patternFill patternType="gray125"/>
-    </fill>
-  </fills>
-  <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-  </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
-  </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-  </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-  </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
-</styleSheet>
+<x:styleSheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:numFmts count="1">
+    <x:numFmt numFmtId="0" formatCode=""/>
+  </x:numFmts>
+  <x:fonts count="1">
+    <x:font>
+      <x:vertAlign val="baseline"/>
+      <x:sz val="11"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Calibri"/>
+      <x:family val="2"/>
+    </x:font>
+  </x:fonts>
+  <x:fills count="2">
+    <x:fill>
+      <x:patternFill patternType="none"/>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="gray125"/>
+    </x:fill>
+  </x:fills>
+  <x:borders count="1">
+    <x:border diagonalUp="0" diagonalDown="0">
+      <x:left style="none">
+        <x:color rgb="FF000000"/>
+      </x:left>
+      <x:right style="none">
+        <x:color rgb="FF000000"/>
+      </x:right>
+      <x:top style="none">
+        <x:color rgb="FF000000"/>
+      </x:top>
+      <x:bottom style="none">
+        <x:color rgb="FF000000"/>
+      </x:bottom>
+      <x:diagonal style="none">
+        <x:color rgb="FF000000"/>
+      </x:diagonal>
+    </x:border>
+  </x:borders>
+  <x:cellStyleXfs count="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+  </x:cellStyleXfs>
+  <x:cellXfs count="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+  </x:cellXfs>
+  <x:cellStyles count="1">
+    <x:cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </x:cellStyles>
+</x:styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="TabelNr1" displayName="TabelNr1" ref="A1:B3" totalsRowShown="0">
-  <autoFilter ref="A1:B3" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Id"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Age"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8CA455DB-C105-4E16-B3D2-45C87975EB74}" name="RefTable" displayName="RefTable" ref="A1:B3" totalsRowShown="0">
-  <autoFilter ref="A1:B3" xr:uid="{8CA455DB-C105-4E16-B3D2-45C87975EB74}"/>
-  <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{66D47F52-37E9-46C4-BD2B-B8962F099D52}" name="Id"/>
-    <tableColumn id="2" xr3:uid="{BED13DE8-D9F0-4EB5-98E4-5C36ACB9ADC9}" name="Return"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:B3" totalsRowShown="0">
+  <x:autoFilter ref="A1:B3"/>
+  <x:tableColumns count="2">
+    <x:tableColumn id="1" name="Id"/>
+    <x:tableColumn id="2" name="Age"/>
+  </x:tableColumns>
+  <x:tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</x:table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -412,86 +377,47 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="str">
-        <f>VLOOKUP(TabelNr1[[#This Row],[Id]],RefTable[#All],2,FALSE)</f>
-        <v>A</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8CAB631-C706-44D4-BB82-CB77FE3E98D5}">
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
+  <x:dimension ref="A1:B3"/>
+  <x:sheetViews>
+    <x:sheetView workbookViewId="0"/>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="15"/>
+  <x:sheetData>
+    <x:row r="1" spans="1:2">
+      <x:c r="A1" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B1" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:2">
+      <x:c r="A2" s="0">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="B2" s="0">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:2">
+      <x:c r="A3" s="0">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="B3" s="0">
+        <x:v>8</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:headerFooter/>
+  <x:tableParts count="1">
+    <x:tablePart r:id="rId5"/>
+  </x:tableParts>
+</x:worksheet>
 </file>